--- a/candidate-data/datasheets/candidate_data_final.xlsx
+++ b/candidate-data/datasheets/candidate_data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sawzedong/Desktop/Infocomm/Others/sc-election/candidate-data/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248319DD-04A9-EE45-898D-86B370BFF2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F365CCA-6354-0146-9AFA-651591D1569E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jh_candidate_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -162,9 +162,6 @@
     <t>J04</t>
   </si>
   <si>
-    <t>J05</t>
-  </si>
-  <si>
     <t>DH19</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
   </si>
   <si>
     <t>S04</t>
-  </si>
-  <si>
-    <t>S05</t>
   </si>
   <si>
     <t>there must be no duplicates of group_id across jh and sh candidates</t>
@@ -664,7 +658,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C65536"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,7 +775,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -825,7 +819,7 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -836,7 +830,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,7 +852,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,7 +863,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,7 +874,7 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -892,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,200 +910,200 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1145,7 +1139,7 @@
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1159,12 +1153,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>

--- a/candidate-data/datasheets/candidate_data_final.xlsx
+++ b/candidate-data/datasheets/candidate_data_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sawzedong/Desktop/Infocomm/Others/sc-election/candidate-data/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C7AA7-E5B9-5B41-BA2F-775C5DF6604A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CEDE38-2971-E741-9960-0F43953F4B8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -408,12 +408,6 @@
   </si>
   <si>
     <t>Ong Jin Rong Justin</t>
-  </si>
-  <si>
-    <t>DH63</t>
-  </si>
-  <si>
-    <t>Pang Jee Cin</t>
   </si>
   <si>
     <t>S6</t>
@@ -1027,7 +1021,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>16</v>
@@ -1313,7 +1307,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>76</v>
@@ -1362,10 +1356,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1455,7 +1449,7 @@
         <v>97</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>96</v>
@@ -1477,7 +1471,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>96</v>
@@ -1587,7 +1581,7 @@
         <v>121</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>122</v>
@@ -1628,13 +1622,13 @@
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1645,7 +1639,7 @@
         <v>133</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1655,8 +1649,8 @@
       <c r="B26" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>131</v>
+      <c r="C26" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1666,19 +1660,19 @@
       <c r="B27" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>131</v>
+      <c r="C27" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1689,7 +1683,7 @@
         <v>142</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1700,7 +1694,7 @@
         <v>144</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1708,32 +1702,32 @@
         <v>145</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>140</v>
+        <v>160</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>140</v>
+      <c r="C32" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1744,7 +1738,7 @@
         <v>152</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -1754,19 +1748,8 @@
       <c r="B35" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>150</v>
+      <c r="C35" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
